--- a/data/eBooks-main/current/containerized-lifecycle/Containerized-Docker-Application-Lifecycle-with-Microsoft-Platform-and-Tools.pdf.hwaifs/tables/py/gmft/df.tables-6.xlsx
+++ b/data/eBooks-main/current/containerized-lifecycle/Containerized-Docker-Application-Lifecycle-with-Microsoft-Platform-and-Tools.pdf.hwaifs/tables/py/gmft/df.tables-6.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>clusters of machines. Service Fabric can deploy services as containers or as plain processes. It can even mix services in processes with services in containers within the same application and cluster.</t>
+          <t>clusters of machines. Service Fabric can deploy services as containers or as plain</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Service Fabric clusters can be deployed in</t>
+          <t>processes. It can even mix services in</t>
         </is>
       </c>
     </row>
@@ -488,7 +488,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Azure, on-premises or in any cloud. However, deployment in Azure is simplified with a managed approach.</t>
+          <t>processes with services in containers within the same application and cluster.</t>
         </is>
       </c>
     </row>
@@ -499,7 +499,7 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Service Fabric provides additional and optional prescriptive Service Fabric</t>
+          <t>Service Fabric clusters can be deployed in</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>programming models like stateful services and Reliable Actors.</t>
+          <t>Azure, on-premises or in any cloud.</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Service Fabric is mature in Windows (years evolving in Windows), less mature in Linux.</t>
+          <t>However, deployment in Azure is simplified with a managed approach.</t>
         </is>
       </c>
     </row>
@@ -531,6 +531,39 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
+        <is>
+          <t>Service Fabric provides additional and optional prescriptive Service Fabric programming models like stateful services</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>and Reliable Actors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Service Fabric is mature in Windows (years evolving in Windows), less mature in Linux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
         <is>
           <t>Both Linux and Windows containers are supported in Service Fabric since 2017.</t>
         </is>
